--- a/files/menus/mtbenson_market/bakery_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/bakery_mtbenson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18AEB023-10C5-49E2-AF36-A73DA9A1CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7EFF9-DBAA-4DDC-80D5-BD956E60E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="1530" windowWidth="19725" windowHeight="16710" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="17115" yWindow="3270" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="bakery_mtbenson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
   <si>
     <t>Ingredients</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>needed</t>
+  </si>
+  <si>
+    <t>Apple Filling  / Enriched Flour / Butter / Whole Eggs / Cinnamon / Salt</t>
+  </si>
+  <si>
+    <t>Peanut Butter /  Enriched Flour /  Margarine / White Chocolate / Chocolate / Skim Milk Powder / Whole Eggs /  Peanuts / Sugar</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, soy, peanuts. May contain treenuts, sulphites.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>VEG</t>
   </si>
 </sst>
 </file>
@@ -156,12 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G24" totalsRowShown="0">
-  <autoFilter ref="A1:G24" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -495,7 +509,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,16 +549,16 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
@@ -555,16 +569,16 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
@@ -575,16 +589,16 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
@@ -595,19 +609,19 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -615,19 +629,19 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -635,19 +649,19 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -655,19 +669,19 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -675,19 +689,19 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -695,19 +709,19 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -715,19 +729,19 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -735,19 +749,19 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -755,19 +769,19 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -775,19 +789,19 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -795,19 +809,19 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -815,19 +829,19 @@
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
     </row>

--- a/files/menus/mtbenson_market/bakery_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/bakery_mtbenson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7EFF9-DBAA-4DDC-80D5-BD956E60E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A3069-5662-4720-B354-9702694AE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17115" yWindow="3270" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="bakery_mtbenson" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>nutritionLabel</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>VEG</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F13" sqref="F13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -542,307 +542,307 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/mtbenson_market/bakery_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/bakery_mtbenson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A3069-5662-4720-B354-9702694AE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5670412D-1BF1-4B6E-8A8D-7B7B2C8BCA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="17535" yWindow="4095" windowWidth="21285" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="bakery_mtbenson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>Ingredients</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Apple Turnover</t>
   </si>
   <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>Muffin</t>
-  </si>
-  <si>
     <t>Cherry Danish</t>
   </si>
   <si>
@@ -89,27 +83,12 @@
     <t>Ham &amp; Cheese Croissant</t>
   </si>
   <si>
-    <t>Scone</t>
-  </si>
-  <si>
-    <t>Sausage Roll</t>
-  </si>
-  <si>
-    <t>Samosa</t>
-  </si>
-  <si>
     <t>Banana Bread</t>
   </si>
   <si>
     <t>Peanut Butter Brownie</t>
   </si>
   <si>
-    <t>needed</t>
-  </si>
-  <si>
-    <t>Apple Filling  / Enriched Flour / Butter / Whole Eggs / Cinnamon / Salt</t>
-  </si>
-  <si>
     <t>Peanut Butter /  Enriched Flour /  Margarine / White Chocolate / Chocolate / Skim Milk Powder / Whole Eggs /  Peanuts / Sugar</t>
   </si>
   <si>
@@ -123,6 +102,246 @@
   </si>
   <si>
     <t>placeholder</t>
+  </si>
+  <si>
+    <t>Muffin Varieties</t>
+  </si>
+  <si>
+    <t>Scone Varieties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GF Blueberry Muffin</t>
+  </si>
+  <si>
+    <t>Milk, eggs, soy.</t>
+  </si>
+  <si>
+    <t>Blueberries / Lemon / Rice Flour / Potato Starch / Eggs / Sugar / Oil / Salt</t>
+  </si>
+  <si>
+    <t>Wheat, soy. May contain milk, eggs, and tree nuts.</t>
+  </si>
+  <si>
+    <t>Double Chocolate Cookie</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs, soy. May contain peanuts, tree nuts, crustacean, sulphites.</t>
+  </si>
+  <si>
+    <t>Chocolate Chip Cookie</t>
+  </si>
+  <si>
+    <t>Wheat, eggs, milk, soy. May contain peanuts, tree nuts, sulphites, tartrazine.</t>
+  </si>
+  <si>
+    <t>Oatmeal Raisin Cookie</t>
+  </si>
+  <si>
+    <t>Wheat, eggs, milk, soy. May contain peanuts, tree nuts, sulphites.</t>
+  </si>
+  <si>
+    <t>White Chocolate Macadamia Cookie</t>
+  </si>
+  <si>
+    <t>Wheat, macadamia nuts, eggs, milk, soy. May contain peanuts, other tree nuts, sulphites, tartrazine.</t>
+  </si>
+  <si>
+    <t>Double Chocolate White Chip Cookie</t>
+  </si>
+  <si>
+    <t>Beef Samosa</t>
+  </si>
+  <si>
+    <t>Apple Filling  / Enriched Wheat Flour / Butter / Whole Eggs / Cinnamon / Salt</t>
+  </si>
+  <si>
+    <t>GF Chocolate Almond Cookie</t>
+  </si>
+  <si>
+    <t>Eggs, milk, soy. May contain peanuts, tree nuts, sulphites</t>
+  </si>
+  <si>
+    <t>Trump Food GF Almond Cookie</t>
+  </si>
+  <si>
+    <t>BC,VEG</t>
+  </si>
+  <si>
+    <t>Bananas / Wheat Flour / Chocolate Chips / Eggs / Sugar / Cinnamon / Vanilla</t>
+  </si>
+  <si>
+    <t>Semi-Sweet Chocolate Chunks / Rice Flour / Potato Starch / Butter / Eggs / Sugar / Salt / Vanilla</t>
+  </si>
+  <si>
+    <t>Wheat Flour / Oats / Raisins /  Eggs / Margarine / Sugar / Salt / Vanilla</t>
+  </si>
+  <si>
+    <t>White Chocolate Chunks / Wheat Flour / Macadamia Nuts / Eggs / Margarine / Sugar / Salt / Vanilla</t>
+  </si>
+  <si>
+    <t>White Chocolate Chunks / Wheat Flour / Cocoa Powder /  Eggs / Margarine / Sugar / Salt / Vanilla</t>
+  </si>
+  <si>
+    <t>Semi-Sweet Chocolate Chips / Wheat Flour / Cocoa Powder /  Eggs / Margarine / Sugar / Salt / Vanilla</t>
+  </si>
+  <si>
+    <t>Semi-Sweet Chocolate Chips / Wheat Flour / Eggs / Margarine / Sugar / Salt / Vanilla</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs, soy.</t>
+  </si>
+  <si>
+    <t>Trump Food Banana Loaf</t>
+  </si>
+  <si>
+    <t>Item will vary daily - find information in the cafeteria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaky Pastry / Greek Yogurt Cream Cheese Filling / Cherry Wheat, milk, eggs, soy. </t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, soy.</t>
+  </si>
+  <si>
+    <t>Flaky Pastry / Maple Brown Sugar Filling / Butter / Pecans</t>
+  </si>
+  <si>
+    <t>Wheat,  gluten, milk, eggs, soy, pecans. May contain peanuts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaky Pastry / Spinach and Feta Filling </t>
+  </si>
+  <si>
+    <t>Yeasted Dough / Butter Cinnamon Filling</t>
+  </si>
+  <si>
+    <t>Eggs, milk, soya, wheat, barley. May contain peanuts, tree nuts.</t>
+  </si>
+  <si>
+    <t>Flaky Butter Pastry</t>
+  </si>
+  <si>
+    <t>Flaky Butter Pastry /  Semi-Sweet Chocolate / Sugar</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, soy, sulphites.</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, soy. May contain peanuts.</t>
+  </si>
+  <si>
+    <t>Monte Cristo Bakery Scones</t>
+  </si>
+  <si>
+    <t>Tofu Scramble Roll</t>
+  </si>
+  <si>
+    <t>Flaky Pastry / Tofu Scramble / Spices</t>
+  </si>
+  <si>
+    <t>Wheat, soy.</t>
+  </si>
+  <si>
+    <t>Maureen's Tofu Roll</t>
+  </si>
+  <si>
+    <t>BC,VGN,DF</t>
+  </si>
+  <si>
+    <t>Beef Sausage Roll</t>
+  </si>
+  <si>
+    <t>Flaky Pastry / Ground Beef Sausage / Spices</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Pastry / Beef / Peas / Carrots / Onion / Potatoes</t>
+  </si>
+  <si>
+    <t>Nana's Kitchen Beef Samosa</t>
+  </si>
+  <si>
+    <t>BC,DF</t>
+  </si>
+  <si>
+    <t>Vegetarian Samosa</t>
+  </si>
+  <si>
+    <t>BC,DF,VEG</t>
+  </si>
+  <si>
+    <t>Pastry / Peas / Carrots / Onion / Potatoes</t>
+  </si>
+  <si>
+    <t>Nana's Kitchen Vegetarian Samosa</t>
+  </si>
+  <si>
+    <t>Wheat, sulphites.</t>
+  </si>
+  <si>
+    <t>Flaky Butter Pastry /  Black Forest Ham / Cheddar Cheese</t>
+  </si>
+  <si>
+    <t>Apple_Turnover</t>
+  </si>
+  <si>
+    <t>Chocolate_Chip_Cookie</t>
+  </si>
+  <si>
+    <t>Double_Chocolate_Cookie</t>
+  </si>
+  <si>
+    <t>Double_Chocolate_White_Chip_Cookie</t>
+  </si>
+  <si>
+    <t>White_Chocolate_Macadamia_Cookie</t>
+  </si>
+  <si>
+    <t>Oatmeal_Raisin_Cookie</t>
+  </si>
+  <si>
+    <t>GF_Chocolate_Almond_Cookie</t>
+  </si>
+  <si>
+    <t>GF_Blueberry_Muffin</t>
+  </si>
+  <si>
+    <t>Banana_Bread</t>
+  </si>
+  <si>
+    <t>Peanut_Butter_Brownie</t>
+  </si>
+  <si>
+    <t>Cherry_Danish</t>
+  </si>
+  <si>
+    <t>Maple_Lattice_Danish</t>
+  </si>
+  <si>
+    <t>Spinach_Lattice_Danish</t>
+  </si>
+  <si>
+    <t>Cinnamon_Bun</t>
+  </si>
+  <si>
+    <t>Chocolate_Croissant</t>
+  </si>
+  <si>
+    <t>Ham_&amp;_Cheese_Croissant</t>
+  </si>
+  <si>
+    <t>Tofu_Scramble_Roll</t>
+  </si>
+  <si>
+    <t>Beef_Sausage_Roll</t>
+  </si>
+  <si>
+    <t>Beef_Samosa</t>
+  </si>
+  <si>
+    <t>Vegetarian_Samosa</t>
   </si>
 </sst>
 </file>
@@ -151,15 +370,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,14 +392,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -506,17 +750,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
@@ -550,299 +794,459 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
